--- a/testData/bestbuySteps.xlsx
+++ b/testData/bestbuySteps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/ZS_GenAI/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/Mytest/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="6_{77161750-C66A-4C90-8326-E45C1845CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BE6D265-BDFC-44AC-9EB2-B9AAFB0A01F6}"/>
+  <xr:revisionPtr revIDLastSave="933" documentId="6_{77161750-C66A-4C90-8326-E45C1845CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F7E734-1254-4332-90D1-A10149E85D0F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
   <si>
     <t>action</t>
   </si>
@@ -59,22 +59,169 @@
     <t>type</t>
   </si>
   <si>
-    <t>https://www.lowes.com/</t>
-  </si>
-  <si>
-    <t>nclick</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>iPad</t>
-  </si>
-  <si>
-    <t>search icon</t>
-  </si>
-  <si>
-    <t>What can we help you find?</t>
+    <t>https://www.bestbuy.com/</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>TestID</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>locatorType</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>waitfortext</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>keypress</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/cart</t>
+  </si>
+  <si>
+    <t>Order Summary</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>click_ai</t>
+  </si>
+  <si>
+    <t>What can we help you find today?</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>New Customers</t>
+  </si>
+  <si>
+    <t>Continue as Guest</t>
+  </si>
+  <si>
+    <t>Opt-In For Text Updates</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>mellina@yopmail.com</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Continue to Payment Information</t>
+  </si>
+  <si>
+    <t>cartassert</t>
+  </si>
+  <si>
+    <t>Choose Pickup Location</t>
+  </si>
+  <si>
+    <t>Select Pickup Location</t>
+  </si>
+  <si>
+    <t>sam-input</t>
+  </si>
+  <si>
+    <t>Pick up here</t>
+  </si>
+  <si>
+    <t>#pickupAmountParser,shippingAmountElement</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Mellina</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>3710 Pio Pico St</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>Update location</t>
+  </si>
+  <si>
+    <t>ZIP or City, State</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>availability-selection</t>
+  </si>
+  <si>
+    <t>select</t>
   </si>
 </sst>
 </file>
@@ -417,97 +564,1089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3"/>
+      <c r="G2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="4"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="3"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>92106</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2">
+        <v>6142097763</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2">
+        <v>92106</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F32" r:id="rId1" xr:uid="{995CD5DC-0B41-40F5-A3E0-3011338607B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>